--- a/src/db/NewWSOB.xlsx
+++ b/src/db/NewWSOB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="th" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/Development/wsob/src/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141C29BF-1EB8-0B46-A212-5745761C53E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E87626-5C6B-3A4D-82D3-3B2FB4742474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="2" xr2:uid="{F349D91F-DADB-BC41-AF38-4B8438A57F68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{F349D91F-DADB-BC41-AF38-4B8438A57F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="807">
   <si>
     <t>firstName</t>
   </si>
@@ -2455,6 +2456,9 @@
   </si>
   <si>
     <t>Cummings</t>
+  </si>
+  <si>
+    <t>drafted</t>
   </si>
 </sst>
 </file>
@@ -2536,7 +2540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2546,6 +2550,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2581,6 +2588,35 @@
     <tableColumn id="3" xr3:uid="{DA1F8D45-7797-3C40-AD9D-230A77B84F35}" name="pos"/>
     <tableColumn id="4" xr3:uid="{307BEB64-92FB-204B-8A06-77B796BDE3AE}" name="deck"/>
     <tableColumn id="5" xr3:uid="{0DEB7F00-6162-D645-9DDA-854554BC825A}" name="Dreafted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F869160-0C87-A547-839F-DA3E8CA3B3BB}" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0">
+  <autoFilter ref="A1:E1048576" xr:uid="{9F869160-0C87-A547-839F-DA3E8CA3B3BB}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="s"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1998 MLB"/>
+        <filter val="2016 MLB"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{343B8C4A-C005-A54E-92A3-5D2DE2889204}" name="firstName"/>
+    <tableColumn id="2" xr3:uid="{030567AC-5681-8149-A983-11C8845BA656}" name="LastName"/>
+    <tableColumn id="3" xr3:uid="{87E5B107-F53A-0441-BD8A-E687FB8C8BC2}" name="s/r/b"/>
+    <tableColumn id="4" xr3:uid="{887AE190-4FE2-9846-AEFF-121DBD7C488F}" name="deck"/>
+    <tableColumn id="5" xr3:uid="{DC85DC04-45C6-C04E-8188-6C1E99D92FDD}" name="drafted"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8155,8 +8191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C600A28D-A9AD-8245-9F2C-256E0EA39EFC}">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8393,59 +8429,59 @@
       <c r="M3" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -8458,86 +8494,86 @@
       <c r="C4" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>283</v>
@@ -8592,50 +8628,50 @@
       <c r="P5" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -8669,68 +8705,68 @@
       <c r="J6" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -8743,80 +8779,80 @@
       <c r="C7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>648</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>299</v>
@@ -8895,32 +8931,32 @@
       <c r="V8" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -8969,78 +9005,516 @@
       <c r="O9" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>717</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>718</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>719</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>720</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>654</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -9051,15 +9525,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3872E5-1D5E-2F49-A7EE-F324D91151AA}">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9072,8 +9549,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -9086,8 +9566,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -9100,8 +9583,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -9114,8 +9600,15 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f ca="1">ROUND(RAND()*64,0)</f>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -9128,8 +9621,18 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f ca="1">ROUND(RAND()*40,0)</f>
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -9142,8 +9645,15 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" ref="I6:I69" ca="1" si="0">ROUND(RAND()*40,0)</f>
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -9156,8 +9666,15 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -9170,8 +9687,15 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -9184,8 +9708,15 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -9198,8 +9729,18 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -9212,8 +9753,18 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -9226,8 +9777,18 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J12" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -9240,8 +9801,18 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -9254,8 +9825,15 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -9268,8 +9846,18 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -9282,8 +9870,15 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="J16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -9296,8 +9891,18 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -9310,8 +9915,15 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>174</v>
       </c>
@@ -9324,8 +9936,18 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -9338,8 +9960,15 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -9352,8 +9981,18 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -9366,8 +10005,15 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -9380,8 +10026,15 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -9394,8 +10047,18 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>186</v>
       </c>
@@ -9408,8 +10071,15 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -9422,8 +10092,15 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>190</v>
       </c>
@@ -9436,8 +10113,18 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>192</v>
       </c>
@@ -9450,8 +10137,18 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -9464,8 +10161,18 @@
       <c r="D29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="J29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -9478,8 +10185,15 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -9492,8 +10206,15 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -9506,8 +10227,18 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -9520,8 +10251,18 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>198</v>
       </c>
@@ -9534,8 +10275,18 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -9548,8 +10299,18 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>202</v>
       </c>
@@ -9562,8 +10323,12 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -9576,8 +10341,18 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -9590,8 +10365,12 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -9604,8 +10383,15 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -9618,8 +10404,18 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -9632,8 +10428,12 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>213</v>
       </c>
@@ -9646,8 +10446,12 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -9660,8 +10464,18 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -9674,8 +10488,12 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9688,8 +10506,12 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -9702,8 +10524,18 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -9716,8 +10548,12 @@
       <c r="D47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -9730,8 +10566,12 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -9744,8 +10584,15 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -9758,8 +10605,12 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -9772,8 +10623,15 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -9786,8 +10644,15 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -9800,8 +10665,12 @@
       <c r="D53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>227</v>
       </c>
@@ -9814,8 +10683,18 @@
       <c r="D54" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -9828,8 +10707,18 @@
       <c r="D55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -9842,8 +10731,18 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -9856,8 +10755,12 @@
       <c r="D57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>233</v>
       </c>
@@ -9870,8 +10773,18 @@
       <c r="D58" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>235</v>
       </c>
@@ -9884,8 +10797,15 @@
       <c r="D59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>237</v>
       </c>
@@ -9898,8 +10818,15 @@
       <c r="D60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>341</v>
       </c>
@@ -9912,8 +10839,18 @@
       <c r="D61" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -9926,8 +10863,12 @@
       <c r="D62" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>219</v>
       </c>
@@ -9940,8 +10881,18 @@
       <c r="D63" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>345</v>
       </c>
@@ -9954,8 +10905,12 @@
       <c r="D64" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>347</v>
       </c>
@@ -9968,8 +10923,12 @@
       <c r="D65" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>219</v>
       </c>
@@ -9982,8 +10941,15 @@
       <c r="D66" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>350</v>
       </c>
@@ -9996,8 +10962,12 @@
       <c r="D67" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>352</v>
       </c>
@@ -10010,8 +10980,18 @@
       <c r="D68" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>354</v>
       </c>
@@ -10024,8 +11004,15 @@
       <c r="D69" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>356</v>
       </c>
@@ -10038,8 +11025,15 @@
       <c r="D70" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70:I87" ca="1" si="1">ROUND(RAND()*40,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>358</v>
       </c>
@@ -10052,8 +11046,18 @@
       <c r="D71" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J71">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>360</v>
       </c>
@@ -10066,8 +11070,12 @@
       <c r="D72" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -10080,8 +11088,18 @@
       <c r="D73" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J73">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>219</v>
       </c>
@@ -10094,8 +11112,18 @@
       <c r="D74" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J74">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>364</v>
       </c>
@@ -10108,8 +11136,12 @@
       <c r="D75" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -10122,8 +11154,12 @@
       <c r="D76" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -10136,8 +11172,12 @@
       <c r="D77" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>368</v>
       </c>
@@ -10150,8 +11190,18 @@
       <c r="D78" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -10164,8 +11214,15 @@
       <c r="D79" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>371</v>
       </c>
@@ -10178,8 +11235,12 @@
       <c r="D80" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -10192,8 +11253,15 @@
       <c r="D81" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>375</v>
       </c>
@@ -10206,8 +11274,12 @@
       <c r="D82" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>377</v>
       </c>
@@ -10220,8 +11292,18 @@
       <c r="D83" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J83">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>259</v>
       </c>
@@ -10234,8 +11316,12 @@
       <c r="D84" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>379</v>
       </c>
@@ -10248,8 +11334,15 @@
       <c r="D85" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>381</v>
       </c>
@@ -10262,8 +11355,18 @@
       <c r="D86" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J86">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>383</v>
       </c>
@@ -10276,8 +11379,18 @@
       <c r="D87" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J87">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -10290,8 +11403,11 @@
       <c r="D88" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>386</v>
       </c>
@@ -10304,8 +11420,11 @@
       <c r="D89" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>388</v>
       </c>
@@ -10319,7 +11438,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>390</v>
       </c>
@@ -10332,8 +11451,11 @@
       <c r="D91" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>392</v>
       </c>
@@ -10347,7 +11469,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>394</v>
       </c>
@@ -10360,8 +11482,11 @@
       <c r="D93" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>396</v>
       </c>
@@ -10374,8 +11499,11 @@
       <c r="D94" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>398</v>
       </c>
@@ -10388,8 +11516,11 @@
       <c r="D95" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>352</v>
       </c>
@@ -10403,7 +11534,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>168</v>
       </c>
@@ -10416,8 +11547,11 @@
       <c r="D97" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>219</v>
       </c>
@@ -10430,8 +11564,11 @@
       <c r="D98" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -10444,8 +11581,11 @@
       <c r="D99" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>168</v>
       </c>
@@ -10458,8 +11598,11 @@
       <c r="D100" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>405</v>
       </c>
@@ -10472,8 +11615,11 @@
       <c r="D101" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>56</v>
       </c>
@@ -10487,7 +11633,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>347</v>
       </c>
@@ -10500,8 +11646,11 @@
       <c r="D103" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>409</v>
       </c>
@@ -10515,7 +11664,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>411</v>
       </c>
@@ -10529,7 +11678,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>56</v>
       </c>
@@ -10542,8 +11691,11 @@
       <c r="D106" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>413</v>
       </c>
@@ -10557,7 +11709,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>358</v>
       </c>
@@ -10570,8 +11722,11 @@
       <c r="D108" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -10584,8 +11739,11 @@
       <c r="D109" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>417</v>
       </c>
@@ -10598,8 +11756,11 @@
       <c r="D110" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>419</v>
       </c>
@@ -10612,8 +11773,11 @@
       <c r="D111" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>259</v>
       </c>
@@ -10627,7 +11791,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>706</v>
       </c>
@@ -10637,8 +11801,14 @@
       <c r="C113" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>423</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>707</v>
       </c>
@@ -10648,8 +11818,14 @@
       <c r="C114" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>423</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>709</v>
       </c>
@@ -10659,8 +11835,14 @@
       <c r="C115" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>423</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>711</v>
       </c>
@@ -10670,8 +11852,14 @@
       <c r="C116" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>423</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>364</v>
       </c>
@@ -10681,8 +11869,14 @@
       <c r="C117" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>423</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>714</v>
       </c>
@@ -10692,8 +11886,14 @@
       <c r="C118" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>423</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>716</v>
       </c>
@@ -10703,8 +11903,14 @@
       <c r="C119" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>423</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>721</v>
       </c>
@@ -10714,8 +11920,14 @@
       <c r="C120" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>423</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -10725,8 +11937,14 @@
       <c r="C121" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>423</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>495</v>
       </c>
@@ -10736,8 +11954,14 @@
       <c r="C122" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>423</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>513</v>
       </c>
@@ -10747,8 +11971,14 @@
       <c r="C123" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>423</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>426</v>
       </c>
@@ -10758,8 +11988,14 @@
       <c r="C124" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>423</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>625</v>
       </c>
@@ -10769,8 +12005,14 @@
       <c r="C125" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>423</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>726</v>
       </c>
@@ -10780,8 +12022,14 @@
       <c r="C126" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>423</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>728</v>
       </c>
@@ -10791,8 +12039,14 @@
       <c r="C127" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>423</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>730</v>
       </c>
@@ -10802,8 +12056,14 @@
       <c r="C128" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>423</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>732</v>
       </c>
@@ -10813,8 +12073,14 @@
       <c r="C129" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>423</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>734</v>
       </c>
@@ -10824,8 +12090,14 @@
       <c r="C130" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>423</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>347</v>
       </c>
@@ -10835,8 +12107,14 @@
       <c r="C131" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>423</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>485</v>
       </c>
@@ -10846,8 +12124,14 @@
       <c r="C132" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>423</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>738</v>
       </c>
@@ -10857,8 +12141,14 @@
       <c r="C133" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>423</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>739</v>
       </c>
@@ -10868,8 +12158,14 @@
       <c r="C134" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>423</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>430</v>
       </c>
@@ -10879,8 +12175,14 @@
       <c r="C135" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>423</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>742</v>
       </c>
@@ -10890,8 +12192,14 @@
       <c r="C136" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>423</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>44</v>
       </c>
@@ -10901,8 +12209,14 @@
       <c r="C137" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>423</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>744</v>
       </c>
@@ -10912,8 +12226,14 @@
       <c r="C138" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>423</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>746</v>
       </c>
@@ -10923,8 +12243,14 @@
       <c r="C139" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>423</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>614</v>
       </c>
@@ -10934,8 +12260,14 @@
       <c r="C140" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>423</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>328</v>
       </c>
@@ -10945,8 +12277,14 @@
       <c r="C141" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>423</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>470</v>
       </c>
@@ -10956,8 +12294,14 @@
       <c r="C142" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>423</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>750</v>
       </c>
@@ -10967,8 +12311,14 @@
       <c r="C143" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>423</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>334</v>
       </c>
@@ -10978,8 +12328,14 @@
       <c r="C144" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>423</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>753</v>
       </c>
@@ -10989,8 +12345,14 @@
       <c r="C145" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>423</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>345</v>
       </c>
@@ -11000,8 +12362,14 @@
       <c r="C146" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>423</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>250</v>
       </c>
@@ -11011,8 +12379,14 @@
       <c r="C147" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>423</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -11022,8 +12396,14 @@
       <c r="C148" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>423</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>483</v>
       </c>
@@ -11033,8 +12413,14 @@
       <c r="C149" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>423</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>647</v>
       </c>
@@ -11044,8 +12430,14 @@
       <c r="C150" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
+        <v>423</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>425</v>
       </c>
@@ -11055,8 +12447,14 @@
       <c r="C151" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
+        <v>423</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>506</v>
       </c>
@@ -11066,8 +12464,14 @@
       <c r="C152" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
+        <v>423</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>761</v>
       </c>
@@ -11077,8 +12481,14 @@
       <c r="C153" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>423</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>732</v>
       </c>
@@ -11088,8 +12498,14 @@
       <c r="C154" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>423</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>763</v>
       </c>
@@ -11099,8 +12515,14 @@
       <c r="C155" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>423</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>294</v>
       </c>
@@ -11110,8 +12532,14 @@
       <c r="C156" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>423</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>765</v>
       </c>
@@ -11121,8 +12549,14 @@
       <c r="C157" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>423</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>767</v>
       </c>
@@ -11132,8 +12566,14 @@
       <c r="C158" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>423</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>347</v>
       </c>
@@ -11143,8 +12583,14 @@
       <c r="C159" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
+        <v>423</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>768</v>
       </c>
@@ -11154,8 +12600,14 @@
       <c r="C160" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>423</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>556</v>
       </c>
@@ -11165,8 +12617,14 @@
       <c r="C161" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>423</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>252</v>
       </c>
@@ -11176,8 +12634,14 @@
       <c r="C162" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>423</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>664</v>
       </c>
@@ -11187,8 +12651,14 @@
       <c r="C163" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>423</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>772</v>
       </c>
@@ -11198,8 +12668,14 @@
       <c r="C164" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>423</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>294</v>
       </c>
@@ -11209,8 +12685,14 @@
       <c r="C165" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>423</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>612</v>
       </c>
@@ -11220,8 +12702,14 @@
       <c r="C166" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>423</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>732</v>
       </c>
@@ -11231,8 +12719,14 @@
       <c r="C167" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>423</v>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>777</v>
       </c>
@@ -11242,8 +12736,14 @@
       <c r="C168" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>423</v>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>778</v>
       </c>
@@ -11253,8 +12753,14 @@
       <c r="C169" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>423</v>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>375</v>
       </c>
@@ -11264,8 +12770,14 @@
       <c r="C170" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>423</v>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>768</v>
       </c>
@@ -11275,8 +12787,14 @@
       <c r="C171" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>423</v>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>781</v>
       </c>
@@ -11286,8 +12804,14 @@
       <c r="C172" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
+        <v>423</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>390</v>
       </c>
@@ -11297,8 +12821,14 @@
       <c r="C173" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>423</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>784</v>
       </c>
@@ -11308,8 +12838,14 @@
       <c r="C174" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>423</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>448</v>
       </c>
@@ -11319,8 +12855,14 @@
       <c r="C175" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>423</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>786</v>
       </c>
@@ -11330,8 +12872,14 @@
       <c r="C176" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>423</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>788</v>
       </c>
@@ -11341,8 +12889,14 @@
       <c r="C177" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>423</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>790</v>
       </c>
@@ -11352,8 +12906,14 @@
       <c r="C178" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
+        <v>423</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>250</v>
       </c>
@@ -11363,8 +12923,14 @@
       <c r="C179" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
+        <v>423</v>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>721</v>
       </c>
@@ -11374,8 +12940,14 @@
       <c r="C180" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>423</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>117</v>
       </c>
@@ -11385,8 +12957,14 @@
       <c r="C181" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>423</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>356</v>
       </c>
@@ -11396,8 +12974,14 @@
       <c r="C182" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>423</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>793</v>
       </c>
@@ -11407,8 +12991,14 @@
       <c r="C183" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" t="s">
+        <v>423</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>625</v>
       </c>
@@ -11418,8 +13008,14 @@
       <c r="C184" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>423</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>796</v>
       </c>
@@ -11429,8 +13025,14 @@
       <c r="C185" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>423</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>219</v>
       </c>
@@ -11440,8 +13042,14 @@
       <c r="C186" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>423</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>665</v>
       </c>
@@ -11451,8 +13059,14 @@
       <c r="C187" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>423</v>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>800</v>
       </c>
@@ -11462,8 +13076,14 @@
       <c r="C188" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>423</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>802</v>
       </c>
@@ -11473,8 +13093,14 @@
       <c r="C189" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>423</v>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>804</v>
       </c>
@@ -11484,9 +13110,21 @@
       <c r="C190" t="s">
         <v>140</v>
       </c>
+      <c r="D190" t="s">
+        <v>423</v>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J5:J87">
+    <sortCondition ref="J5:J87"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>